--- a/PM/04b_GanttChart_Detail.xlsx
+++ b/PM/04b_GanttChart_Detail.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649253B0-C7D0-4F80-9216-D2ACBCDA1DB7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F1EF0-2FC2-4222-8E02-AE8FEFFD4195}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="28860" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,12 +12,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="69">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -184,6 +184,52 @@
   <si>
     <t>Aberan Sivalingam</t>
   </si>
+  <si>
+    <t>14.5-18.5</t>
+  </si>
+  <si>
+    <t>KW20</t>
+  </si>
+  <si>
+    <t>KW21</t>
+  </si>
+  <si>
+    <t>KW22</t>
+  </si>
+  <si>
+    <t>KW23</t>
+  </si>
+  <si>
+    <t>KW24</t>
+  </si>
+  <si>
+    <t>KW25</t>
+  </si>
+  <si>
+    <t>KW26</t>
+  </si>
+  <si>
+    <t>21.5-25.5</t>
+  </si>
+  <si>
+    <t>28.5-1.6</t>
+  </si>
+  <si>
+    <t>4.6-8.6</t>
+  </si>
+  <si>
+    <t>11.6-15.6</t>
+  </si>
+  <si>
+    <t>18.6-22.6</t>
+  </si>
+  <si>
+    <t>25.6-29.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tbaa</t>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +343,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2016,6 +2068,53 @@
     <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2091,7 +2190,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,7 +2248,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2168,57 +2265,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2227,6 +2281,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FF33"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -2643,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EP77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AT22" sqref="AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2806,476 +2861,480 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="143" t="s">
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="145"/>
-      <c r="AJ2" s="146"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="148"/>
-      <c r="AU2" s="149"/>
-      <c r="AV2" s="150"/>
-      <c r="AW2" s="150"/>
-      <c r="AX2" s="150"/>
-      <c r="AY2" s="150"/>
-      <c r="AZ2" s="150"/>
-      <c r="BA2" s="150"/>
-      <c r="BB2" s="150"/>
-      <c r="BC2" s="150"/>
-      <c r="BD2" s="150"/>
-      <c r="BE2" s="150"/>
-      <c r="BF2" s="150"/>
-      <c r="BG2" s="151"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
+      <c r="AJ2" s="190">
+        <v>43242</v>
+      </c>
+      <c r="AK2" s="180"/>
+      <c r="AL2" s="180"/>
+      <c r="AM2" s="180"/>
+      <c r="AN2" s="180"/>
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="180"/>
+      <c r="AQ2" s="180"/>
+      <c r="AR2" s="180"/>
+      <c r="AS2" s="180"/>
+      <c r="AT2" s="181"/>
+      <c r="AU2" s="182"/>
+      <c r="AV2" s="183"/>
+      <c r="AW2" s="183"/>
+      <c r="AX2" s="183"/>
+      <c r="AY2" s="183"/>
+      <c r="AZ2" s="183"/>
+      <c r="BA2" s="183"/>
+      <c r="BB2" s="183"/>
+      <c r="BC2" s="183"/>
+      <c r="BD2" s="183"/>
+      <c r="BE2" s="183"/>
+      <c r="BF2" s="183"/>
+      <c r="BG2" s="184"/>
       <c r="BH2" s="4"/>
       <c r="BI2" s="5"/>
-      <c r="BJ2" s="152" t="s">
+      <c r="BJ2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="BK2" s="144"/>
-      <c r="BL2" s="144"/>
-      <c r="BM2" s="144"/>
-      <c r="BN2" s="144"/>
-      <c r="BO2" s="144"/>
-      <c r="BP2" s="144"/>
-      <c r="BQ2" s="144"/>
-      <c r="BR2" s="144"/>
-      <c r="BS2" s="144"/>
-      <c r="BT2" s="144"/>
-      <c r="BU2" s="144"/>
-      <c r="BV2" s="144"/>
-      <c r="BW2" s="144"/>
-      <c r="BX2" s="144"/>
-      <c r="BY2" s="144"/>
-      <c r="BZ2" s="144"/>
-      <c r="CA2" s="144"/>
-      <c r="CB2" s="144"/>
-      <c r="CC2" s="144"/>
-      <c r="CD2" s="144"/>
-      <c r="CE2" s="144"/>
-      <c r="CF2" s="144"/>
-      <c r="CG2" s="153"/>
-      <c r="CH2" s="126" t="s">
+      <c r="BK2" s="178"/>
+      <c r="BL2" s="178"/>
+      <c r="BM2" s="178"/>
+      <c r="BN2" s="178"/>
+      <c r="BO2" s="178"/>
+      <c r="BP2" s="178"/>
+      <c r="BQ2" s="178"/>
+      <c r="BR2" s="178"/>
+      <c r="BS2" s="178"/>
+      <c r="BT2" s="178"/>
+      <c r="BU2" s="178"/>
+      <c r="BV2" s="178"/>
+      <c r="BW2" s="178"/>
+      <c r="BX2" s="178"/>
+      <c r="BY2" s="178"/>
+      <c r="BZ2" s="178"/>
+      <c r="CA2" s="178"/>
+      <c r="CB2" s="178"/>
+      <c r="CC2" s="178"/>
+      <c r="CD2" s="178"/>
+      <c r="CE2" s="178"/>
+      <c r="CF2" s="178"/>
+      <c r="CG2" s="186"/>
+      <c r="CH2" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="CI2" s="127"/>
-      <c r="CJ2" s="127"/>
-      <c r="CK2" s="127"/>
-      <c r="CL2" s="127"/>
-      <c r="CM2" s="127"/>
-      <c r="CN2" s="127"/>
-      <c r="CO2" s="127"/>
-      <c r="CP2" s="127"/>
-      <c r="CQ2" s="127"/>
-      <c r="CR2" s="127"/>
-      <c r="CS2" s="127"/>
-      <c r="CT2" s="127"/>
-      <c r="CU2" s="127"/>
-      <c r="CV2" s="127"/>
-      <c r="CW2" s="127"/>
-      <c r="CX2" s="127"/>
-      <c r="CY2" s="127"/>
-      <c r="CZ2" s="127"/>
-      <c r="DA2" s="127"/>
-      <c r="DB2" s="127"/>
-      <c r="DC2" s="127"/>
-      <c r="DD2" s="127"/>
-      <c r="DE2" s="127"/>
-      <c r="DF2" s="128"/>
-      <c r="DG2" s="111"/>
-      <c r="DH2" s="112"/>
-      <c r="DI2" s="112"/>
-      <c r="DJ2" s="112"/>
-      <c r="DK2" s="112"/>
-      <c r="DL2" s="112"/>
-      <c r="DM2" s="112"/>
-      <c r="DN2" s="112"/>
-      <c r="DO2" s="112"/>
-      <c r="DP2" s="112"/>
-      <c r="DQ2" s="112"/>
-      <c r="DR2" s="112"/>
-      <c r="DS2" s="112"/>
-      <c r="DT2" s="112"/>
-      <c r="DU2" s="112"/>
-      <c r="DV2" s="112"/>
-      <c r="DW2" s="112"/>
-      <c r="DX2" s="112"/>
-      <c r="DY2" s="112"/>
-      <c r="DZ2" s="112"/>
-      <c r="EA2" s="112"/>
-      <c r="EB2" s="112"/>
-      <c r="EC2" s="112"/>
-      <c r="ED2" s="112"/>
-      <c r="EE2" s="112"/>
-      <c r="EF2" s="112"/>
-      <c r="EG2" s="112"/>
-      <c r="EH2" s="112"/>
-      <c r="EI2" s="112"/>
-      <c r="EJ2" s="112"/>
-      <c r="EK2" s="112"/>
-      <c r="EL2" s="112"/>
-      <c r="EM2" s="112"/>
-      <c r="EN2" s="112"/>
-      <c r="EO2" s="115"/>
+      <c r="CI2" s="161"/>
+      <c r="CJ2" s="161"/>
+      <c r="CK2" s="161"/>
+      <c r="CL2" s="161"/>
+      <c r="CM2" s="161"/>
+      <c r="CN2" s="161"/>
+      <c r="CO2" s="161"/>
+      <c r="CP2" s="161"/>
+      <c r="CQ2" s="161"/>
+      <c r="CR2" s="161"/>
+      <c r="CS2" s="161"/>
+      <c r="CT2" s="161"/>
+      <c r="CU2" s="161"/>
+      <c r="CV2" s="161"/>
+      <c r="CW2" s="161"/>
+      <c r="CX2" s="161"/>
+      <c r="CY2" s="161"/>
+      <c r="CZ2" s="161"/>
+      <c r="DA2" s="161"/>
+      <c r="DB2" s="161"/>
+      <c r="DC2" s="161"/>
+      <c r="DD2" s="161"/>
+      <c r="DE2" s="161"/>
+      <c r="DF2" s="162"/>
+      <c r="DG2" s="146"/>
+      <c r="DH2" s="147"/>
+      <c r="DI2" s="147"/>
+      <c r="DJ2" s="147"/>
+      <c r="DK2" s="147"/>
+      <c r="DL2" s="147"/>
+      <c r="DM2" s="147"/>
+      <c r="DN2" s="147"/>
+      <c r="DO2" s="147"/>
+      <c r="DP2" s="147"/>
+      <c r="DQ2" s="147"/>
+      <c r="DR2" s="147"/>
+      <c r="DS2" s="147"/>
+      <c r="DT2" s="147"/>
+      <c r="DU2" s="147"/>
+      <c r="DV2" s="147"/>
+      <c r="DW2" s="147"/>
+      <c r="DX2" s="147"/>
+      <c r="DY2" s="147"/>
+      <c r="DZ2" s="147"/>
+      <c r="EA2" s="147"/>
+      <c r="EB2" s="147"/>
+      <c r="EC2" s="147"/>
+      <c r="ED2" s="147"/>
+      <c r="EE2" s="147"/>
+      <c r="EF2" s="147"/>
+      <c r="EG2" s="147"/>
+      <c r="EH2" s="147"/>
+      <c r="EI2" s="147"/>
+      <c r="EJ2" s="147"/>
+      <c r="EK2" s="147"/>
+      <c r="EL2" s="147"/>
+      <c r="EM2" s="147"/>
+      <c r="EN2" s="147"/>
+      <c r="EO2" s="150"/>
       <c r="EP2" s="6"/>
     </row>
     <row r="3" spans="1:146" ht="45.75" customHeight="1" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="120" t="s">
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="153"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="124"/>
-      <c r="AO3" s="124"/>
-      <c r="AP3" s="124"/>
-      <c r="AQ3" s="124"/>
-      <c r="AR3" s="124"/>
-      <c r="AS3" s="124"/>
-      <c r="AT3" s="125"/>
-      <c r="AU3" s="132"/>
-      <c r="AV3" s="133"/>
-      <c r="AW3" s="134" t="s">
+      <c r="W3" s="156"/>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="156"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="156"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
+      <c r="AJ3" s="191">
+        <v>43238</v>
+      </c>
+      <c r="AK3" s="158"/>
+      <c r="AL3" s="158"/>
+      <c r="AM3" s="158"/>
+      <c r="AN3" s="158"/>
+      <c r="AO3" s="158"/>
+      <c r="AP3" s="158"/>
+      <c r="AQ3" s="158"/>
+      <c r="AR3" s="158"/>
+      <c r="AS3" s="158"/>
+      <c r="AT3" s="159"/>
+      <c r="AU3" s="166"/>
+      <c r="AV3" s="167"/>
+      <c r="AW3" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="136"/>
+      <c r="AX3" s="169"/>
+      <c r="AY3" s="169"/>
+      <c r="AZ3" s="169"/>
+      <c r="BA3" s="169"/>
+      <c r="BB3" s="169"/>
+      <c r="BC3" s="169"/>
+      <c r="BD3" s="169"/>
+      <c r="BE3" s="169"/>
+      <c r="BF3" s="169"/>
+      <c r="BG3" s="170"/>
       <c r="BH3" s="8"/>
       <c r="BI3" s="9"/>
-      <c r="BJ3" s="137" t="s">
+      <c r="BJ3" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="BK3" s="138"/>
-      <c r="BL3" s="138"/>
-      <c r="BM3" s="138"/>
-      <c r="BN3" s="138"/>
-      <c r="BO3" s="138"/>
-      <c r="BP3" s="138"/>
-      <c r="BQ3" s="138"/>
-      <c r="BR3" s="138"/>
-      <c r="BS3" s="138"/>
-      <c r="BT3" s="138"/>
-      <c r="BU3" s="138"/>
-      <c r="BV3" s="138"/>
-      <c r="BW3" s="138"/>
-      <c r="BX3" s="138"/>
-      <c r="BY3" s="138"/>
-      <c r="BZ3" s="138"/>
-      <c r="CA3" s="138"/>
-      <c r="CB3" s="138"/>
-      <c r="CC3" s="138"/>
-      <c r="CD3" s="138"/>
-      <c r="CE3" s="138"/>
-      <c r="CF3" s="138"/>
-      <c r="CG3" s="139"/>
-      <c r="CH3" s="129"/>
-      <c r="CI3" s="130"/>
-      <c r="CJ3" s="130"/>
-      <c r="CK3" s="130"/>
-      <c r="CL3" s="130"/>
-      <c r="CM3" s="130"/>
-      <c r="CN3" s="130"/>
-      <c r="CO3" s="130"/>
-      <c r="CP3" s="130"/>
-      <c r="CQ3" s="130"/>
-      <c r="CR3" s="130"/>
-      <c r="CS3" s="130"/>
-      <c r="CT3" s="130"/>
-      <c r="CU3" s="130"/>
-      <c r="CV3" s="130"/>
-      <c r="CW3" s="130"/>
-      <c r="CX3" s="130"/>
-      <c r="CY3" s="130"/>
-      <c r="CZ3" s="130"/>
-      <c r="DA3" s="130"/>
-      <c r="DB3" s="130"/>
-      <c r="DC3" s="130"/>
-      <c r="DD3" s="130"/>
-      <c r="DE3" s="130"/>
-      <c r="DF3" s="131"/>
-      <c r="DG3" s="113"/>
-      <c r="DH3" s="114"/>
-      <c r="DI3" s="114"/>
-      <c r="DJ3" s="114"/>
-      <c r="DK3" s="114"/>
-      <c r="DL3" s="114"/>
-      <c r="DM3" s="114"/>
-      <c r="DN3" s="114"/>
-      <c r="DO3" s="114"/>
-      <c r="DP3" s="114"/>
-      <c r="DQ3" s="114"/>
-      <c r="DR3" s="114"/>
-      <c r="DS3" s="114"/>
-      <c r="DT3" s="114"/>
-      <c r="DU3" s="114"/>
-      <c r="DV3" s="114"/>
-      <c r="DW3" s="114"/>
-      <c r="DX3" s="114"/>
-      <c r="DY3" s="114"/>
-      <c r="DZ3" s="114"/>
-      <c r="EA3" s="114"/>
-      <c r="EB3" s="114"/>
-      <c r="EC3" s="114"/>
-      <c r="ED3" s="114"/>
-      <c r="EE3" s="114"/>
-      <c r="EF3" s="114"/>
-      <c r="EG3" s="114"/>
-      <c r="EH3" s="114"/>
-      <c r="EI3" s="114"/>
-      <c r="EJ3" s="114"/>
-      <c r="EK3" s="114"/>
-      <c r="EL3" s="114"/>
-      <c r="EM3" s="114"/>
-      <c r="EN3" s="114"/>
-      <c r="EO3" s="116"/>
+      <c r="BK3" s="172"/>
+      <c r="BL3" s="172"/>
+      <c r="BM3" s="172"/>
+      <c r="BN3" s="172"/>
+      <c r="BO3" s="172"/>
+      <c r="BP3" s="172"/>
+      <c r="BQ3" s="172"/>
+      <c r="BR3" s="172"/>
+      <c r="BS3" s="172"/>
+      <c r="BT3" s="172"/>
+      <c r="BU3" s="172"/>
+      <c r="BV3" s="172"/>
+      <c r="BW3" s="172"/>
+      <c r="BX3" s="172"/>
+      <c r="BY3" s="172"/>
+      <c r="BZ3" s="172"/>
+      <c r="CA3" s="172"/>
+      <c r="CB3" s="172"/>
+      <c r="CC3" s="172"/>
+      <c r="CD3" s="172"/>
+      <c r="CE3" s="172"/>
+      <c r="CF3" s="172"/>
+      <c r="CG3" s="173"/>
+      <c r="CH3" s="163"/>
+      <c r="CI3" s="164"/>
+      <c r="CJ3" s="164"/>
+      <c r="CK3" s="164"/>
+      <c r="CL3" s="164"/>
+      <c r="CM3" s="164"/>
+      <c r="CN3" s="164"/>
+      <c r="CO3" s="164"/>
+      <c r="CP3" s="164"/>
+      <c r="CQ3" s="164"/>
+      <c r="CR3" s="164"/>
+      <c r="CS3" s="164"/>
+      <c r="CT3" s="164"/>
+      <c r="CU3" s="164"/>
+      <c r="CV3" s="164"/>
+      <c r="CW3" s="164"/>
+      <c r="CX3" s="164"/>
+      <c r="CY3" s="164"/>
+      <c r="CZ3" s="164"/>
+      <c r="DA3" s="164"/>
+      <c r="DB3" s="164"/>
+      <c r="DC3" s="164"/>
+      <c r="DD3" s="164"/>
+      <c r="DE3" s="164"/>
+      <c r="DF3" s="165"/>
+      <c r="DG3" s="148"/>
+      <c r="DH3" s="149"/>
+      <c r="DI3" s="149"/>
+      <c r="DJ3" s="149"/>
+      <c r="DK3" s="149"/>
+      <c r="DL3" s="149"/>
+      <c r="DM3" s="149"/>
+      <c r="DN3" s="149"/>
+      <c r="DO3" s="149"/>
+      <c r="DP3" s="149"/>
+      <c r="DQ3" s="149"/>
+      <c r="DR3" s="149"/>
+      <c r="DS3" s="149"/>
+      <c r="DT3" s="149"/>
+      <c r="DU3" s="149"/>
+      <c r="DV3" s="149"/>
+      <c r="DW3" s="149"/>
+      <c r="DX3" s="149"/>
+      <c r="DY3" s="149"/>
+      <c r="DZ3" s="149"/>
+      <c r="EA3" s="149"/>
+      <c r="EB3" s="149"/>
+      <c r="EC3" s="149"/>
+      <c r="ED3" s="149"/>
+      <c r="EE3" s="149"/>
+      <c r="EF3" s="149"/>
+      <c r="EG3" s="149"/>
+      <c r="EH3" s="149"/>
+      <c r="EI3" s="149"/>
+      <c r="EJ3" s="149"/>
+      <c r="EK3" s="149"/>
+      <c r="EL3" s="149"/>
+      <c r="EM3" s="149"/>
+      <c r="EN3" s="149"/>
+      <c r="EO3" s="151"/>
       <c r="EP3" s="6"/>
     </row>
     <row r="4" spans="1:146" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="93"/>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="93"/>
-      <c r="BM4" s="93"/>
-      <c r="BN4" s="93"/>
-      <c r="BO4" s="93"/>
-      <c r="BP4" s="93"/>
-      <c r="BQ4" s="93"/>
-      <c r="BR4" s="93"/>
-      <c r="BS4" s="93"/>
-      <c r="BT4" s="93"/>
-      <c r="BU4" s="93"/>
-      <c r="BV4" s="93"/>
-      <c r="BW4" s="93"/>
-      <c r="BX4" s="93"/>
-      <c r="BY4" s="93"/>
-      <c r="BZ4" s="93"/>
-      <c r="CA4" s="93"/>
-      <c r="CB4" s="93"/>
-      <c r="CC4" s="93"/>
-      <c r="CD4" s="93"/>
-      <c r="CE4" s="93"/>
-      <c r="CF4" s="93"/>
-      <c r="CG4" s="93"/>
-      <c r="CH4" s="93"/>
-      <c r="CI4" s="93"/>
-      <c r="CJ4" s="93"/>
-      <c r="CK4" s="93"/>
-      <c r="CL4" s="93"/>
-      <c r="CM4" s="93"/>
-      <c r="CN4" s="93"/>
-      <c r="CO4" s="93"/>
-      <c r="CP4" s="93"/>
-      <c r="CQ4" s="93"/>
-      <c r="CR4" s="93"/>
-      <c r="CS4" s="93"/>
-      <c r="CT4" s="93"/>
-      <c r="CU4" s="93"/>
-      <c r="CV4" s="93"/>
-      <c r="CW4" s="93"/>
-      <c r="CX4" s="93"/>
-      <c r="CY4" s="93"/>
-      <c r="CZ4" s="93"/>
-      <c r="DA4" s="93"/>
-      <c r="DB4" s="93"/>
-      <c r="DC4" s="93"/>
-      <c r="DD4" s="93"/>
-      <c r="DE4" s="93"/>
-      <c r="DF4" s="94"/>
-      <c r="DG4" s="95"/>
-      <c r="DH4" s="96"/>
-      <c r="DI4" s="96"/>
-      <c r="DJ4" s="96"/>
-      <c r="DK4" s="96"/>
-      <c r="DL4" s="96"/>
-      <c r="DM4" s="96"/>
-      <c r="DN4" s="96"/>
-      <c r="DO4" s="96"/>
-      <c r="DP4" s="96"/>
-      <c r="DQ4" s="96"/>
-      <c r="DR4" s="96"/>
-      <c r="DS4" s="96"/>
-      <c r="DT4" s="96"/>
-      <c r="DU4" s="96"/>
-      <c r="DV4" s="96"/>
-      <c r="DW4" s="96"/>
-      <c r="DX4" s="96"/>
-      <c r="DY4" s="96"/>
-      <c r="DZ4" s="96"/>
-      <c r="EA4" s="96"/>
-      <c r="EB4" s="96"/>
-      <c r="EC4" s="96"/>
-      <c r="ED4" s="96"/>
-      <c r="EE4" s="96"/>
-      <c r="EF4" s="96"/>
-      <c r="EG4" s="96"/>
-      <c r="EH4" s="96"/>
-      <c r="EI4" s="96"/>
-      <c r="EJ4" s="96"/>
-      <c r="EK4" s="96"/>
-      <c r="EL4" s="96"/>
-      <c r="EM4" s="96"/>
-      <c r="EN4" s="96"/>
-      <c r="EO4" s="97"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="128"/>
+      <c r="AK4" s="128"/>
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="128"/>
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="128"/>
+      <c r="AR4" s="128"/>
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="128"/>
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="128"/>
+      <c r="AX4" s="128"/>
+      <c r="AY4" s="128"/>
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="128"/>
+      <c r="BD4" s="128"/>
+      <c r="BE4" s="128"/>
+      <c r="BF4" s="128"/>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
+      <c r="BI4" s="128"/>
+      <c r="BJ4" s="128"/>
+      <c r="BK4" s="128"/>
+      <c r="BL4" s="128"/>
+      <c r="BM4" s="128"/>
+      <c r="BN4" s="128"/>
+      <c r="BO4" s="128"/>
+      <c r="BP4" s="128"/>
+      <c r="BQ4" s="128"/>
+      <c r="BR4" s="128"/>
+      <c r="BS4" s="128"/>
+      <c r="BT4" s="128"/>
+      <c r="BU4" s="128"/>
+      <c r="BV4" s="128"/>
+      <c r="BW4" s="128"/>
+      <c r="BX4" s="128"/>
+      <c r="BY4" s="128"/>
+      <c r="BZ4" s="128"/>
+      <c r="CA4" s="128"/>
+      <c r="CB4" s="128"/>
+      <c r="CC4" s="128"/>
+      <c r="CD4" s="128"/>
+      <c r="CE4" s="128"/>
+      <c r="CF4" s="128"/>
+      <c r="CG4" s="128"/>
+      <c r="CH4" s="128"/>
+      <c r="CI4" s="128"/>
+      <c r="CJ4" s="128"/>
+      <c r="CK4" s="128"/>
+      <c r="CL4" s="128"/>
+      <c r="CM4" s="128"/>
+      <c r="CN4" s="128"/>
+      <c r="CO4" s="128"/>
+      <c r="CP4" s="128"/>
+      <c r="CQ4" s="128"/>
+      <c r="CR4" s="128"/>
+      <c r="CS4" s="128"/>
+      <c r="CT4" s="128"/>
+      <c r="CU4" s="128"/>
+      <c r="CV4" s="128"/>
+      <c r="CW4" s="128"/>
+      <c r="CX4" s="128"/>
+      <c r="CY4" s="128"/>
+      <c r="CZ4" s="128"/>
+      <c r="DA4" s="128"/>
+      <c r="DB4" s="128"/>
+      <c r="DC4" s="128"/>
+      <c r="DD4" s="128"/>
+      <c r="DE4" s="128"/>
+      <c r="DF4" s="129"/>
+      <c r="DG4" s="130"/>
+      <c r="DH4" s="131"/>
+      <c r="DI4" s="131"/>
+      <c r="DJ4" s="131"/>
+      <c r="DK4" s="131"/>
+      <c r="DL4" s="131"/>
+      <c r="DM4" s="131"/>
+      <c r="DN4" s="131"/>
+      <c r="DO4" s="131"/>
+      <c r="DP4" s="131"/>
+      <c r="DQ4" s="131"/>
+      <c r="DR4" s="131"/>
+      <c r="DS4" s="131"/>
+      <c r="DT4" s="131"/>
+      <c r="DU4" s="131"/>
+      <c r="DV4" s="131"/>
+      <c r="DW4" s="131"/>
+      <c r="DX4" s="131"/>
+      <c r="DY4" s="131"/>
+      <c r="DZ4" s="131"/>
+      <c r="EA4" s="131"/>
+      <c r="EB4" s="131"/>
+      <c r="EC4" s="131"/>
+      <c r="ED4" s="131"/>
+      <c r="EE4" s="131"/>
+      <c r="EF4" s="131"/>
+      <c r="EG4" s="131"/>
+      <c r="EH4" s="131"/>
+      <c r="EI4" s="131"/>
+      <c r="EJ4" s="131"/>
+      <c r="EK4" s="131"/>
+      <c r="EL4" s="131"/>
+      <c r="EM4" s="131"/>
+      <c r="EN4" s="131"/>
+      <c r="EO4" s="132"/>
       <c r="EP4" s="10"/>
     </row>
     <row r="5" spans="1:146" ht="16.5" thickTop="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -3283,49 +3342,63 @@
       <c r="J5" s="13"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
+      <c r="M5" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="15"/>
+      <c r="T5" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="17"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
-      <c r="AA5" s="15"/>
+      <c r="AA5" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="17"/>
       <c r="AF5" s="14"/>
       <c r="AG5" s="14"/>
-      <c r="AH5" s="15"/>
+      <c r="AH5" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
       <c r="AL5" s="17"/>
       <c r="AM5" s="14"/>
       <c r="AN5" s="14"/>
-      <c r="AO5" s="15"/>
+      <c r="AO5" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="AP5" s="16"/>
       <c r="AQ5" s="16"/>
       <c r="AR5" s="16"/>
       <c r="AS5" s="17"/>
       <c r="AT5" s="14"/>
       <c r="AU5" s="14"/>
-      <c r="AV5" s="15"/>
+      <c r="AV5" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="AW5" s="16"/>
       <c r="AX5" s="16"/>
       <c r="AY5" s="16"/>
       <c r="AZ5" s="17"/>
       <c r="BA5" s="14"/>
       <c r="BB5" s="14"/>
-      <c r="BC5" s="15"/>
+      <c r="BC5" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="BD5" s="16"/>
       <c r="BE5" s="16"/>
       <c r="BF5" s="16"/>
@@ -3419,13 +3492,13 @@
       <c r="EP5" s="19"/>
     </row>
     <row r="6" spans="1:146" ht="15.75">
-      <c r="A6" s="99"/>
-      <c r="B6" s="105" t="s">
+      <c r="A6" s="134"/>
+      <c r="B6" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -3433,49 +3506,63 @@
       <c r="J6" s="21"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
+      <c r="M6" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="23"/>
+      <c r="T6" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
       <c r="X6" s="25"/>
       <c r="Y6" s="22"/>
       <c r="Z6" s="22"/>
-      <c r="AA6" s="23"/>
+      <c r="AA6" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="AB6" s="24"/>
       <c r="AC6" s="24"/>
       <c r="AD6" s="24"/>
       <c r="AE6" s="25"/>
       <c r="AF6" s="22"/>
       <c r="AG6" s="22"/>
-      <c r="AH6" s="23"/>
+      <c r="AH6" s="23" t="s">
+        <v>64</v>
+      </c>
       <c r="AI6" s="24"/>
       <c r="AJ6" s="24"/>
       <c r="AK6" s="24"/>
       <c r="AL6" s="25"/>
       <c r="AM6" s="22"/>
       <c r="AN6" s="22"/>
-      <c r="AO6" s="23"/>
+      <c r="AO6" s="23" t="s">
+        <v>65</v>
+      </c>
       <c r="AP6" s="24"/>
       <c r="AQ6" s="24"/>
       <c r="AR6" s="24"/>
       <c r="AS6" s="25"/>
       <c r="AT6" s="22"/>
       <c r="AU6" s="22"/>
-      <c r="AV6" s="23"/>
+      <c r="AV6" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="AW6" s="24"/>
       <c r="AX6" s="24"/>
       <c r="AY6" s="24"/>
       <c r="AZ6" s="25"/>
       <c r="BA6" s="22"/>
       <c r="BB6" s="22"/>
-      <c r="BC6" s="23"/>
+      <c r="BC6" s="189" t="s">
+        <v>67</v>
+      </c>
       <c r="BD6" s="24"/>
       <c r="BE6" s="24"/>
       <c r="BF6" s="24"/>
@@ -3569,13 +3656,13 @@
       <c r="EP6" s="19"/>
     </row>
     <row r="7" spans="1:146" ht="16.5" thickBot="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="108" t="s">
+      <c r="A7" s="135"/>
+      <c r="B7" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="110"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
       <c r="F7" s="90" t="s">
         <v>12</v>
       </c>
@@ -3999,7 +4086,7 @@
       <c r="EP7" s="19"/>
     </row>
     <row r="8" spans="1:146" ht="16.5" thickBot="1">
-      <c r="A8" s="101"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
@@ -4155,17 +4242,21 @@
       <c r="EP8" s="19"/>
     </row>
     <row r="9" spans="1:146">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="160">
+      <c r="C9" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="124">
         <v>2</v>
       </c>
-      <c r="E9" s="162"/>
+      <c r="E9" s="126">
+        <v>2</v>
+      </c>
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
@@ -4173,8 +4264,8 @@
       <c r="J9" s="40"/>
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="189"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -4309,11 +4400,11 @@
       <c r="EP9" s="2"/>
     </row>
     <row r="10" spans="1:146">
-      <c r="A10" s="155"/>
-      <c r="B10" s="157"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="163"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
@@ -4321,8 +4412,8 @@
       <c r="J10" s="46"/>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="186"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="188"/>
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="45"/>
@@ -4457,17 +4548,21 @@
       <c r="EP10" s="2"/>
     </row>
     <row r="11" spans="1:146">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="160">
+      <c r="C11" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="124">
         <v>2</v>
       </c>
-      <c r="E11" s="162"/>
+      <c r="E11" s="126">
+        <v>2</v>
+      </c>
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -4477,9 +4572,9 @@
       <c r="L11" s="41"/>
       <c r="M11" s="42"/>
       <c r="N11" s="39"/>
-      <c r="O11" s="189"/>
-      <c r="P11" s="189"/>
-      <c r="Q11" s="187"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="99"/>
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
       <c r="T11" s="39"/>
@@ -4611,11 +4706,11 @@
       <c r="EP11" s="2"/>
     </row>
     <row r="12" spans="1:146">
-      <c r="A12" s="154"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="163"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="44"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
@@ -4625,9 +4720,9 @@
       <c r="L12" s="47"/>
       <c r="M12" s="48"/>
       <c r="N12" s="45"/>
-      <c r="O12" s="186"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="183"/>
+      <c r="O12" s="188"/>
+      <c r="P12" s="188"/>
+      <c r="Q12" s="95"/>
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
       <c r="T12" s="45"/>
@@ -4759,17 +4854,21 @@
       <c r="EP12" s="2"/>
     </row>
     <row r="13" spans="1:146">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="166"/>
-      <c r="D13" s="167">
+      <c r="C13" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="110">
         <v>1</v>
       </c>
-      <c r="E13" s="168"/>
+      <c r="E13" s="112">
+        <v>1</v>
+      </c>
       <c r="F13" s="50"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
@@ -4778,10 +4877,10 @@
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
       <c r="M13" s="54"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
       <c r="P13" s="51"/>
-      <c r="Q13" s="185"/>
+      <c r="Q13" s="97"/>
       <c r="R13" s="53"/>
       <c r="S13" s="53"/>
       <c r="T13" s="51"/>
@@ -4913,11 +5012,11 @@
       <c r="EP13" s="2"/>
     </row>
     <row r="14" spans="1:146">
-      <c r="A14" s="155"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="163"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="44"/>
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
@@ -4926,10 +5025,10 @@
       <c r="K14" s="47"/>
       <c r="L14" s="47"/>
       <c r="M14" s="48"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
       <c r="P14" s="45"/>
-      <c r="Q14" s="186"/>
+      <c r="Q14" s="188"/>
       <c r="R14" s="47"/>
       <c r="S14" s="47"/>
       <c r="T14" s="45"/>
@@ -5061,17 +5160,19 @@
       <c r="EP14" s="2"/>
     </row>
     <row r="15" spans="1:146">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167">
+      <c r="C15" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="110">
         <v>3</v>
       </c>
-      <c r="E15" s="168"/>
+      <c r="E15" s="112"/>
       <c r="F15" s="50"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
@@ -5086,9 +5187,9 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="53"/>
       <c r="S15" s="53"/>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
       <c r="Y15" s="53"/>
@@ -5215,11 +5316,11 @@
       <c r="EP15" s="2"/>
     </row>
     <row r="16" spans="1:146">
-      <c r="A16" s="155"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="163"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="44"/>
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
@@ -5234,9 +5335,9 @@
       <c r="Q16" s="45"/>
       <c r="R16" s="47"/>
       <c r="S16" s="47"/>
-      <c r="T16" s="186"/>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
+      <c r="T16" s="188"/>
+      <c r="U16" s="188"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="45"/>
       <c r="X16" s="45"/>
       <c r="Y16" s="47"/>
@@ -5363,17 +5464,19 @@
       <c r="EP16" s="2"/>
     </row>
     <row r="17" spans="1:146">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="156" t="s">
+      <c r="B17" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="169"/>
-      <c r="D17" s="170">
+      <c r="C17" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="123">
         <v>4</v>
       </c>
-      <c r="E17" s="171"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
@@ -5388,18 +5491,18 @@
       <c r="Q17" s="51"/>
       <c r="R17" s="53"/>
       <c r="S17" s="53"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="182"/>
-      <c r="V17" s="182"/>
-      <c r="W17" s="182"/>
-      <c r="X17" s="182"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
       <c r="Y17" s="53"/>
       <c r="Z17" s="53"/>
       <c r="AA17" s="51"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="185"/>
+      <c r="AB17" s="97"/>
+      <c r="AC17" s="97"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="97"/>
       <c r="AF17" s="53"/>
       <c r="AG17" s="53"/>
       <c r="AH17" s="51"/>
@@ -5517,11 +5620,11 @@
       <c r="EP17" s="2"/>
     </row>
     <row r="18" spans="1:146">
-      <c r="A18" s="154"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="162"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="44"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
@@ -5536,18 +5639,18 @@
       <c r="Q18" s="45"/>
       <c r="R18" s="47"/>
       <c r="S18" s="47"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
       <c r="Y18" s="47"/>
       <c r="Z18" s="47"/>
       <c r="AA18" s="45"/>
-      <c r="AB18" s="186"/>
-      <c r="AC18" s="186"/>
-      <c r="AD18" s="186"/>
-      <c r="AE18" s="186"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
       <c r="AF18" s="47"/>
       <c r="AG18" s="47"/>
       <c r="AH18" s="45"/>
@@ -5665,17 +5768,19 @@
       <c r="EP18" s="2"/>
     </row>
     <row r="19" spans="1:146">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="D19" s="167">
+      <c r="C19" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="110">
         <v>3</v>
       </c>
-      <c r="E19" s="168"/>
+      <c r="E19" s="112"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
@@ -5693,15 +5798,15 @@
       <c r="T19" s="51"/>
       <c r="U19" s="51"/>
       <c r="V19" s="51"/>
-      <c r="W19" s="185"/>
-      <c r="X19" s="185"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
       <c r="Y19" s="53"/>
       <c r="Z19" s="53"/>
-      <c r="AA19" s="185"/>
-      <c r="AB19" s="182"/>
-      <c r="AC19" s="182"/>
-      <c r="AD19" s="182"/>
-      <c r="AE19" s="182"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
       <c r="AF19" s="53"/>
       <c r="AG19" s="53"/>
       <c r="AH19" s="51"/>
@@ -5819,11 +5924,11 @@
       <c r="EP19" s="2"/>
     </row>
     <row r="20" spans="1:146">
-      <c r="A20" s="155"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="163"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="44"/>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
@@ -5841,15 +5946,15 @@
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
       <c r="V20" s="45"/>
-      <c r="W20" s="186"/>
-      <c r="X20" s="186"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
       <c r="Y20" s="47"/>
       <c r="Z20" s="47"/>
-      <c r="AA20" s="186"/>
-      <c r="AB20" s="183"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="183"/>
-      <c r="AE20" s="183"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
       <c r="AF20" s="47"/>
       <c r="AG20" s="47"/>
       <c r="AH20" s="45"/>
@@ -5966,18 +6071,22 @@
       <c r="EO20" s="49"/>
       <c r="EP20" s="2"/>
     </row>
-    <row r="21" spans="1:146">
-      <c r="A21" s="165" t="s">
+    <row r="21" spans="1:146" ht="15" customHeight="1">
+      <c r="A21" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167">
+      <c r="D21" s="110">
         <v>3</v>
       </c>
-      <c r="E21" s="168"/>
+      <c r="E21" s="112">
+        <v>2</v>
+      </c>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
@@ -5987,12 +6096,12 @@
       <c r="L21" s="53"/>
       <c r="M21" s="54"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="181"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="181"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
       <c r="R21" s="53"/>
       <c r="S21" s="53"/>
-      <c r="T21" s="182"/>
+      <c r="T21" s="94"/>
       <c r="U21" s="51"/>
       <c r="V21" s="51"/>
       <c r="W21" s="51"/>
@@ -6121,11 +6230,11 @@
       <c r="EP21" s="2"/>
     </row>
     <row r="22" spans="1:146">
-      <c r="A22" s="155"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="163"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="44"/>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
@@ -6135,12 +6244,12 @@
       <c r="L22" s="47"/>
       <c r="M22" s="48"/>
       <c r="N22" s="45"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="180"/>
-      <c r="Q22" s="180"/>
+      <c r="O22" s="188"/>
+      <c r="P22" s="188"/>
+      <c r="Q22" s="188"/>
       <c r="R22" s="47"/>
       <c r="S22" s="47"/>
-      <c r="T22" s="183"/>
+      <c r="T22" s="95"/>
       <c r="U22" s="45"/>
       <c r="V22" s="45"/>
       <c r="W22" s="45"/>
@@ -6268,18 +6377,20 @@
       <c r="EO22" s="49"/>
       <c r="EP22" s="2"/>
     </row>
-    <row r="23" spans="1:146">
-      <c r="A23" s="165" t="s">
+    <row r="23" spans="1:146" ht="15" customHeight="1">
+      <c r="A23" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167">
+      <c r="D23" s="110">
         <v>2</v>
       </c>
-      <c r="E23" s="168"/>
+      <c r="E23" s="112"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
       <c r="H23" s="51"/>
@@ -6294,9 +6405,9 @@
       <c r="Q23" s="51"/>
       <c r="R23" s="53"/>
       <c r="S23" s="53"/>
-      <c r="T23" s="182"/>
-      <c r="U23" s="181"/>
-      <c r="V23" s="181"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
       <c r="Y23" s="53"/>
@@ -6423,11 +6534,11 @@
       <c r="EP23" s="2"/>
     </row>
     <row r="24" spans="1:146">
-      <c r="A24" s="155"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="163"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
@@ -6442,9 +6553,9 @@
       <c r="Q24" s="45"/>
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
-      <c r="T24" s="183"/>
-      <c r="U24" s="180"/>
-      <c r="V24" s="180"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="188"/>
+      <c r="V24" s="92"/>
       <c r="W24" s="45"/>
       <c r="X24" s="45"/>
       <c r="Y24" s="47"/>
@@ -6571,17 +6682,19 @@
       <c r="EP24" s="2"/>
     </row>
     <row r="25" spans="1:146">
-      <c r="A25" s="165" t="s">
+      <c r="A25" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="173" t="s">
+      <c r="B25" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="166"/>
-      <c r="D25" s="167">
+      <c r="C25" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="110">
         <v>3</v>
       </c>
-      <c r="E25" s="168"/>
+      <c r="E25" s="112"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
       <c r="H25" s="51"/>
@@ -6599,12 +6712,12 @@
       <c r="T25" s="51"/>
       <c r="U25" s="51"/>
       <c r="V25" s="51"/>
-      <c r="W25" s="182"/>
-      <c r="X25" s="181"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="93"/>
       <c r="Y25" s="53"/>
       <c r="Z25" s="53"/>
-      <c r="AA25" s="181"/>
-      <c r="AB25" s="181"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
       <c r="AC25" s="51"/>
       <c r="AD25" s="51"/>
       <c r="AE25" s="51"/>
@@ -6725,11 +6838,11 @@
       <c r="EP25" s="2"/>
     </row>
     <row r="26" spans="1:146">
-      <c r="A26" s="155"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="163"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="44"/>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
@@ -6747,12 +6860,12 @@
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
       <c r="V26" s="45"/>
-      <c r="W26" s="183"/>
-      <c r="X26" s="180"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="92"/>
       <c r="Y26" s="47"/>
       <c r="Z26" s="47"/>
-      <c r="AA26" s="180"/>
-      <c r="AB26" s="180"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="92"/>
       <c r="AC26" s="45"/>
       <c r="AD26" s="45"/>
       <c r="AE26" s="45"/>
@@ -6873,17 +6986,19 @@
       <c r="EP26" s="2"/>
     </row>
     <row r="27" spans="1:146">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="172" t="s">
+      <c r="B27" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167">
+      <c r="C27" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="110">
         <v>3</v>
       </c>
-      <c r="E27" s="168"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
       <c r="H27" s="51"/>
@@ -6901,12 +7016,12 @@
       <c r="T27" s="51"/>
       <c r="U27" s="51"/>
       <c r="V27" s="51"/>
-      <c r="W27" s="182"/>
-      <c r="X27" s="181"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="93"/>
       <c r="Y27" s="53"/>
       <c r="Z27" s="53"/>
-      <c r="AA27" s="181"/>
-      <c r="AB27" s="181"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
       <c r="AC27" s="51"/>
       <c r="AD27" s="51"/>
       <c r="AE27" s="51"/>
@@ -7027,11 +7142,11 @@
       <c r="EP27" s="2"/>
     </row>
     <row r="28" spans="1:146">
-      <c r="A28" s="155"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="163"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="44"/>
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
@@ -7049,12 +7164,12 @@
       <c r="T28" s="45"/>
       <c r="U28" s="45"/>
       <c r="V28" s="45"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="180"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="92"/>
       <c r="Y28" s="47"/>
       <c r="Z28" s="47"/>
-      <c r="AA28" s="180"/>
-      <c r="AB28" s="180"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
       <c r="AC28" s="45"/>
       <c r="AD28" s="45"/>
       <c r="AE28" s="45"/>
@@ -7174,18 +7289,20 @@
       <c r="EO28" s="49"/>
       <c r="EP28" s="2"/>
     </row>
-    <row r="29" spans="1:146">
-      <c r="A29" s="165" t="s">
+    <row r="29" spans="1:146" ht="15" customHeight="1">
+      <c r="A29" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="172" t="s">
+      <c r="B29" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="167">
+      <c r="D29" s="110">
         <v>5</v>
       </c>
-      <c r="E29" s="168"/>
+      <c r="E29" s="112"/>
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
       <c r="H29" s="51"/>
@@ -7214,11 +7331,11 @@
       <c r="AE29" s="51"/>
       <c r="AF29" s="53"/>
       <c r="AG29" s="53"/>
-      <c r="AH29" s="185"/>
-      <c r="AI29" s="185"/>
-      <c r="AJ29" s="185"/>
-      <c r="AK29" s="185"/>
-      <c r="AL29" s="185"/>
+      <c r="AH29" s="97"/>
+      <c r="AI29" s="97"/>
+      <c r="AJ29" s="97"/>
+      <c r="AK29" s="97"/>
+      <c r="AL29" s="97"/>
       <c r="AM29" s="53"/>
       <c r="AN29" s="53"/>
       <c r="AO29" s="51"/>
@@ -7329,11 +7446,11 @@
       <c r="EP29" s="2"/>
     </row>
     <row r="30" spans="1:146">
-      <c r="A30" s="155"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="163"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="118"/>
       <c r="F30" s="44"/>
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
@@ -7362,11 +7479,11 @@
       <c r="AE30" s="45"/>
       <c r="AF30" s="47"/>
       <c r="AG30" s="47"/>
-      <c r="AH30" s="186"/>
-      <c r="AI30" s="186"/>
-      <c r="AJ30" s="186"/>
-      <c r="AK30" s="186"/>
-      <c r="AL30" s="186"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="98"/>
       <c r="AM30" s="47"/>
       <c r="AN30" s="47"/>
       <c r="AO30" s="45"/>
@@ -7476,18 +7593,20 @@
       <c r="EO30" s="49"/>
       <c r="EP30" s="2"/>
     </row>
-    <row r="31" spans="1:146">
-      <c r="A31" s="165" t="s">
+    <row r="31" spans="1:146" ht="15" customHeight="1">
+      <c r="A31" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="172" t="s">
+      <c r="B31" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="D31" s="167">
+      <c r="D31" s="110">
         <v>5</v>
       </c>
-      <c r="E31" s="168"/>
+      <c r="E31" s="112"/>
       <c r="F31" s="50"/>
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
@@ -7520,14 +7639,14 @@
       <c r="AI31" s="51"/>
       <c r="AJ31" s="51"/>
       <c r="AK31" s="51"/>
-      <c r="AL31" s="182"/>
+      <c r="AL31" s="94"/>
       <c r="AM31" s="53"/>
       <c r="AN31" s="53"/>
-      <c r="AO31" s="185"/>
-      <c r="AP31" s="185"/>
-      <c r="AQ31" s="185"/>
-      <c r="AR31" s="185"/>
-      <c r="AS31" s="185"/>
+      <c r="AO31" s="97"/>
+      <c r="AP31" s="97"/>
+      <c r="AQ31" s="97"/>
+      <c r="AR31" s="97"/>
+      <c r="AS31" s="97"/>
       <c r="AT31" s="53"/>
       <c r="AU31" s="53"/>
       <c r="AV31" s="51"/>
@@ -7631,11 +7750,11 @@
       <c r="EP31" s="2"/>
     </row>
     <row r="32" spans="1:146">
-      <c r="A32" s="155"/>
-      <c r="B32" s="157"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="163"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="44"/>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
@@ -7668,14 +7787,14 @@
       <c r="AI32" s="45"/>
       <c r="AJ32" s="45"/>
       <c r="AK32" s="45"/>
-      <c r="AL32" s="183"/>
+      <c r="AL32" s="95"/>
       <c r="AM32" s="47"/>
       <c r="AN32" s="47"/>
-      <c r="AO32" s="186"/>
-      <c r="AP32" s="186"/>
-      <c r="AQ32" s="186"/>
-      <c r="AR32" s="186"/>
-      <c r="AS32" s="186"/>
+      <c r="AO32" s="98"/>
+      <c r="AP32" s="98"/>
+      <c r="AQ32" s="98"/>
+      <c r="AR32" s="98"/>
+      <c r="AS32" s="98"/>
       <c r="AT32" s="47"/>
       <c r="AU32" s="47"/>
       <c r="AV32" s="45"/>
@@ -7779,17 +7898,21 @@
       <c r="EP32" s="2"/>
     </row>
     <row r="33" spans="1:146">
-      <c r="A33" s="165" t="s">
+      <c r="A33" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="173" t="s">
+      <c r="B33" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167">
+      <c r="C33" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="110">
         <v>1</v>
       </c>
-      <c r="E33" s="168"/>
+      <c r="E33" s="112">
+        <v>1</v>
+      </c>
       <c r="F33" s="50"/>
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
@@ -7797,9 +7920,9 @@
       <c r="J33" s="52"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="191"/>
-      <c r="O33" s="182"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="94"/>
       <c r="P33" s="51"/>
       <c r="Q33" s="51"/>
       <c r="R33" s="53"/>
@@ -7933,11 +8056,11 @@
       <c r="EP33" s="2"/>
     </row>
     <row r="34" spans="1:146">
-      <c r="A34" s="155"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="163"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="118"/>
       <c r="F34" s="44"/>
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
@@ -7945,9 +8068,9 @@
       <c r="J34" s="46"/>
       <c r="K34" s="47"/>
       <c r="L34" s="47"/>
-      <c r="M34" s="179"/>
-      <c r="N34" s="192"/>
-      <c r="O34" s="183"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="95"/>
       <c r="P34" s="45"/>
       <c r="Q34" s="45"/>
       <c r="R34" s="47"/>
@@ -8081,17 +8204,19 @@
       <c r="EP34" s="2"/>
     </row>
     <row r="35" spans="1:146">
-      <c r="A35" s="165" t="s">
+      <c r="A35" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="173" t="s">
+      <c r="B35" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="167">
+      <c r="C35" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="110">
         <v>2</v>
       </c>
-      <c r="E35" s="168"/>
+      <c r="E35" s="112"/>
       <c r="F35" s="50"/>
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
@@ -8130,12 +8255,12 @@
       <c r="AO35" s="51"/>
       <c r="AP35" s="51"/>
       <c r="AQ35" s="51"/>
-      <c r="AR35" s="182"/>
-      <c r="AS35" s="182"/>
+      <c r="AR35" s="94"/>
+      <c r="AS35" s="94"/>
       <c r="AT35" s="53"/>
       <c r="AU35" s="53"/>
-      <c r="AV35" s="185"/>
-      <c r="AW35" s="185"/>
+      <c r="AV35" s="97"/>
+      <c r="AW35" s="97"/>
       <c r="AX35" s="51"/>
       <c r="AY35" s="51"/>
       <c r="AZ35" s="51"/>
@@ -8235,11 +8360,11 @@
       <c r="EP35" s="2"/>
     </row>
     <row r="36" spans="1:146">
-      <c r="A36" s="155"/>
-      <c r="B36" s="157"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="163"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="44"/>
       <c r="G36" s="45"/>
       <c r="H36" s="45"/>
@@ -8278,12 +8403,12 @@
       <c r="AO36" s="45"/>
       <c r="AP36" s="45"/>
       <c r="AQ36" s="45"/>
-      <c r="AR36" s="183"/>
-      <c r="AS36" s="183"/>
+      <c r="AR36" s="95"/>
+      <c r="AS36" s="95"/>
       <c r="AT36" s="47"/>
       <c r="AU36" s="47"/>
-      <c r="AV36" s="186"/>
-      <c r="AW36" s="186"/>
+      <c r="AV36" s="98"/>
+      <c r="AW36" s="98"/>
       <c r="AX36" s="45"/>
       <c r="AY36" s="45"/>
       <c r="AZ36" s="45"/>
@@ -8383,17 +8508,19 @@
       <c r="EP36" s="2"/>
     </row>
     <row r="37" spans="1:146">
-      <c r="A37" s="165" t="s">
+      <c r="A37" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="173" t="s">
+      <c r="B37" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="D37" s="167">
+      <c r="C37" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="110">
         <v>2</v>
       </c>
-      <c r="E37" s="168"/>
+      <c r="E37" s="112"/>
       <c r="F37" s="50"/>
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
@@ -8436,10 +8563,10 @@
       <c r="AS37" s="51"/>
       <c r="AT37" s="53"/>
       <c r="AU37" s="53"/>
-      <c r="AV37" s="182"/>
-      <c r="AW37" s="182"/>
-      <c r="AX37" s="185"/>
-      <c r="AY37" s="185"/>
+      <c r="AV37" s="94"/>
+      <c r="AW37" s="94"/>
+      <c r="AX37" s="97"/>
+      <c r="AY37" s="97"/>
       <c r="AZ37" s="51"/>
       <c r="BA37" s="53"/>
       <c r="BB37" s="53"/>
@@ -8537,11 +8664,11 @@
       <c r="EP37" s="2"/>
     </row>
     <row r="38" spans="1:146">
-      <c r="A38" s="155"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="163"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="118"/>
       <c r="F38" s="44"/>
       <c r="G38" s="45"/>
       <c r="H38" s="45"/>
@@ -8584,10 +8711,10 @@
       <c r="AS38" s="45"/>
       <c r="AT38" s="47"/>
       <c r="AU38" s="47"/>
-      <c r="AV38" s="183"/>
-      <c r="AW38" s="183"/>
-      <c r="AX38" s="186"/>
-      <c r="AY38" s="186"/>
+      <c r="AV38" s="95"/>
+      <c r="AW38" s="95"/>
+      <c r="AX38" s="98"/>
+      <c r="AY38" s="98"/>
       <c r="AZ38" s="45"/>
       <c r="BA38" s="47"/>
       <c r="BB38" s="47"/>
@@ -8685,17 +8812,19 @@
       <c r="EP38" s="2"/>
     </row>
     <row r="39" spans="1:146">
-      <c r="A39" s="165" t="s">
+      <c r="A39" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="173" t="s">
+      <c r="B39" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="D39" s="167">
+      <c r="C39" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="110">
         <v>2</v>
       </c>
-      <c r="E39" s="168"/>
+      <c r="E39" s="112"/>
       <c r="F39" s="50"/>
       <c r="G39" s="51"/>
       <c r="H39" s="51"/>
@@ -8740,12 +8869,12 @@
       <c r="AU39" s="53"/>
       <c r="AV39" s="51"/>
       <c r="AW39" s="51"/>
-      <c r="AX39" s="182"/>
-      <c r="AY39" s="182"/>
-      <c r="AZ39" s="185"/>
+      <c r="AX39" s="94"/>
+      <c r="AY39" s="94"/>
+      <c r="AZ39" s="97"/>
       <c r="BA39" s="53"/>
       <c r="BB39" s="53"/>
-      <c r="BC39" s="185"/>
+      <c r="BC39" s="97"/>
       <c r="BD39" s="51"/>
       <c r="BE39" s="51"/>
       <c r="BF39" s="51"/>
@@ -8839,11 +8968,11 @@
       <c r="EP39" s="2"/>
     </row>
     <row r="40" spans="1:146">
-      <c r="A40" s="155"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="163"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="44"/>
       <c r="G40" s="45"/>
       <c r="H40" s="45"/>
@@ -8888,12 +9017,12 @@
       <c r="AU40" s="47"/>
       <c r="AV40" s="45"/>
       <c r="AW40" s="45"/>
-      <c r="AX40" s="183"/>
-      <c r="AY40" s="183"/>
-      <c r="AZ40" s="186"/>
+      <c r="AX40" s="95"/>
+      <c r="AY40" s="95"/>
+      <c r="AZ40" s="98"/>
       <c r="BA40" s="47"/>
       <c r="BB40" s="47"/>
-      <c r="BC40" s="186"/>
+      <c r="BC40" s="98"/>
       <c r="BD40" s="45"/>
       <c r="BE40" s="45"/>
       <c r="BF40" s="45"/>
@@ -8987,11 +9116,11 @@
       <c r="EP40" s="2"/>
     </row>
     <row r="41" spans="1:146">
-      <c r="A41" s="165"/>
-      <c r="B41" s="173"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="168"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="112"/>
       <c r="F41" s="50"/>
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
@@ -9135,11 +9264,11 @@
       <c r="EP41" s="2"/>
     </row>
     <row r="42" spans="1:146">
-      <c r="A42" s="155"/>
-      <c r="B42" s="157"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="163"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="44"/>
       <c r="G42" s="45"/>
       <c r="H42" s="45"/>
@@ -9283,11 +9412,11 @@
       <c r="EP42" s="2"/>
     </row>
     <row r="43" spans="1:146">
-      <c r="A43" s="165"/>
-      <c r="B43" s="173"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="168"/>
+      <c r="A43" s="104"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="112"/>
       <c r="F43" s="50"/>
       <c r="G43" s="51"/>
       <c r="H43" s="51"/>
@@ -9431,11 +9560,11 @@
       <c r="EP43" s="2"/>
     </row>
     <row r="44" spans="1:146">
-      <c r="A44" s="155"/>
-      <c r="B44" s="157"/>
-      <c r="C44" s="159"/>
-      <c r="D44" s="161"/>
-      <c r="E44" s="163"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="118"/>
       <c r="F44" s="44"/>
       <c r="G44" s="45"/>
       <c r="H44" s="45"/>
@@ -9579,11 +9708,11 @@
       <c r="EP44" s="2"/>
     </row>
     <row r="45" spans="1:146">
-      <c r="A45" s="165"/>
-      <c r="B45" s="173"/>
-      <c r="C45" s="166"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="168"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="112"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
@@ -9727,11 +9856,11 @@
       <c r="EP45" s="2"/>
     </row>
     <row r="46" spans="1:146">
-      <c r="A46" s="155"/>
-      <c r="B46" s="157"/>
-      <c r="C46" s="159"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="163"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="44"/>
       <c r="G46" s="45"/>
       <c r="H46" s="45"/>
@@ -9875,11 +10004,11 @@
       <c r="EP46" s="2"/>
     </row>
     <row r="47" spans="1:146">
-      <c r="A47" s="165"/>
-      <c r="B47" s="173"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="168"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="112"/>
       <c r="F47" s="50"/>
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
@@ -10023,11 +10152,11 @@
       <c r="EP47" s="2"/>
     </row>
     <row r="48" spans="1:146">
-      <c r="A48" s="155"/>
-      <c r="B48" s="157"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="161"/>
-      <c r="E48" s="163"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="118"/>
       <c r="F48" s="44"/>
       <c r="G48" s="45"/>
       <c r="H48" s="45"/>
@@ -10171,11 +10300,11 @@
       <c r="EP48" s="2"/>
     </row>
     <row r="49" spans="1:146">
-      <c r="A49" s="165"/>
-      <c r="B49" s="173"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="168"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="112"/>
       <c r="F49" s="50"/>
       <c r="G49" s="51"/>
       <c r="H49" s="51"/>
@@ -10319,11 +10448,11 @@
       <c r="EP49" s="2"/>
     </row>
     <row r="50" spans="1:146">
-      <c r="A50" s="155"/>
-      <c r="B50" s="157"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="163"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="44"/>
       <c r="G50" s="45"/>
       <c r="H50" s="45"/>
@@ -10467,11 +10596,11 @@
       <c r="EP50" s="2"/>
     </row>
     <row r="51" spans="1:146">
-      <c r="A51" s="165"/>
-      <c r="B51" s="173"/>
-      <c r="C51" s="166"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="168"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="112"/>
       <c r="F51" s="50"/>
       <c r="G51" s="51"/>
       <c r="H51" s="51"/>
@@ -10615,11 +10744,11 @@
       <c r="EP51" s="2"/>
     </row>
     <row r="52" spans="1:146">
-      <c r="A52" s="155"/>
-      <c r="B52" s="157"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="163"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="118"/>
       <c r="F52" s="44"/>
       <c r="G52" s="45"/>
       <c r="H52" s="45"/>
@@ -10763,11 +10892,11 @@
       <c r="EP52" s="2"/>
     </row>
     <row r="53" spans="1:146">
-      <c r="A53" s="165"/>
-      <c r="B53" s="173"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="168"/>
+      <c r="A53" s="104"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="112"/>
       <c r="F53" s="50"/>
       <c r="G53" s="51"/>
       <c r="H53" s="51"/>
@@ -10911,11 +11040,11 @@
       <c r="EP53" s="2"/>
     </row>
     <row r="54" spans="1:146">
-      <c r="A54" s="155"/>
-      <c r="B54" s="157"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="163"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="118"/>
       <c r="F54" s="44"/>
       <c r="G54" s="45"/>
       <c r="H54" s="45"/>
@@ -11059,11 +11188,11 @@
       <c r="EP54" s="2"/>
     </row>
     <row r="55" spans="1:146">
-      <c r="A55" s="165"/>
-      <c r="B55" s="173"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="168"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="112"/>
       <c r="F55" s="50"/>
       <c r="G55" s="51"/>
       <c r="H55" s="51"/>
@@ -11207,11 +11336,11 @@
       <c r="EP55" s="2"/>
     </row>
     <row r="56" spans="1:146">
-      <c r="A56" s="155"/>
-      <c r="B56" s="157"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="163"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="118"/>
       <c r="F56" s="44"/>
       <c r="G56" s="45"/>
       <c r="H56" s="45"/>
@@ -11355,11 +11484,11 @@
       <c r="EP56" s="2"/>
     </row>
     <row r="57" spans="1:146">
-      <c r="A57" s="165"/>
-      <c r="B57" s="173"/>
-      <c r="C57" s="166"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="168"/>
+      <c r="A57" s="104"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="112"/>
       <c r="F57" s="50"/>
       <c r="G57" s="51"/>
       <c r="H57" s="51"/>
@@ -11503,11 +11632,11 @@
       <c r="EP57" s="2"/>
     </row>
     <row r="58" spans="1:146">
-      <c r="A58" s="155"/>
-      <c r="B58" s="157"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="163"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="118"/>
       <c r="F58" s="44"/>
       <c r="G58" s="45"/>
       <c r="H58" s="45"/>
@@ -11651,11 +11780,11 @@
       <c r="EP58" s="2"/>
     </row>
     <row r="59" spans="1:146">
-      <c r="A59" s="165"/>
-      <c r="B59" s="173"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="168"/>
+      <c r="A59" s="104"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="112"/>
       <c r="F59" s="50"/>
       <c r="G59" s="51"/>
       <c r="H59" s="51"/>
@@ -11799,11 +11928,11 @@
       <c r="EP59" s="2"/>
     </row>
     <row r="60" spans="1:146">
-      <c r="A60" s="155"/>
-      <c r="B60" s="157"/>
-      <c r="C60" s="159"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="163"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="118"/>
       <c r="F60" s="44"/>
       <c r="G60" s="45"/>
       <c r="H60" s="45"/>
@@ -11947,11 +12076,11 @@
       <c r="EP60" s="2"/>
     </row>
     <row r="61" spans="1:146">
-      <c r="A61" s="165"/>
-      <c r="B61" s="173"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="167"/>
-      <c r="E61" s="168"/>
+      <c r="A61" s="104"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="112"/>
       <c r="F61" s="50"/>
       <c r="G61" s="51"/>
       <c r="H61" s="51"/>
@@ -12095,11 +12224,11 @@
       <c r="EP61" s="2"/>
     </row>
     <row r="62" spans="1:146">
-      <c r="A62" s="155"/>
-      <c r="B62" s="157"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="163"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="118"/>
       <c r="F62" s="44"/>
       <c r="G62" s="45"/>
       <c r="H62" s="45"/>
@@ -12243,11 +12372,11 @@
       <c r="EP62" s="2"/>
     </row>
     <row r="63" spans="1:146">
-      <c r="A63" s="165"/>
-      <c r="B63" s="173"/>
-      <c r="C63" s="166"/>
-      <c r="D63" s="167"/>
-      <c r="E63" s="168"/>
+      <c r="A63" s="104"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="112"/>
       <c r="F63" s="50"/>
       <c r="G63" s="51"/>
       <c r="H63" s="51"/>
@@ -12391,11 +12520,11 @@
       <c r="EP63" s="2"/>
     </row>
     <row r="64" spans="1:146">
-      <c r="A64" s="155"/>
-      <c r="B64" s="157"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="161"/>
-      <c r="E64" s="163"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="118"/>
       <c r="F64" s="44"/>
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
@@ -12539,11 +12668,11 @@
       <c r="EP64" s="2"/>
     </row>
     <row r="65" spans="1:146">
-      <c r="A65" s="165"/>
-      <c r="B65" s="173"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="168"/>
+      <c r="A65" s="104"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="112"/>
       <c r="F65" s="50"/>
       <c r="G65" s="51"/>
       <c r="H65" s="51"/>
@@ -12687,11 +12816,11 @@
       <c r="EP65" s="2"/>
     </row>
     <row r="66" spans="1:146" ht="15.75" thickBot="1">
-      <c r="A66" s="174"/>
-      <c r="B66" s="175"/>
-      <c r="C66" s="176"/>
-      <c r="D66" s="177"/>
-      <c r="E66" s="178"/>
+      <c r="A66" s="105"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="113"/>
       <c r="F66" s="57"/>
       <c r="G66" s="58"/>
       <c r="H66" s="58"/>
@@ -14486,151 +14615,6 @@
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A4:DF4"/>
     <mergeCell ref="DG4:EO4"/>
     <mergeCell ref="A5:A8"/>
@@ -14651,6 +14635,151 @@
     <mergeCell ref="AJ2:AT2"/>
     <mergeCell ref="AU2:BG2"/>
     <mergeCell ref="BJ2:CG2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
